--- a/Telefones do Sobreaviso.xlsx
+++ b/Telefones do Sobreaviso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buhlergroup-my.sharepoint.com/personal/daniel_kubisse_buhlergroup_com/Documents/Desktop/Daniel Kubisse/Azure DevOps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_AD4DB114E441178AC67DF45A6E94C888683EDF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9214C347-98C6-4846-99E8-10477F54094D}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_AD4DB114E441178AC67DF45A6E94C888683EDF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CCACB2-4074-4FAA-971C-515DE524AEC0}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="2145" windowWidth="16995" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="\+0"/>
+    <numFmt numFmtId="164" formatCode="\+0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,10 +125,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,6 +144,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,7 +416,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +440,6 @@
         <v>Quinta-feira</v>
       </c>
       <c r="D1" s="5">
-        <f ca="1">LOOKUP(C1,A1:B7,B1:B7)</f>
         <v>5542999203443</v>
       </c>
     </row>
